--- a/Solar Station - 2017.xlsx
+++ b/Solar Station - 2017.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1" codeName="ЭтаКнига"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{E7D923AB-2E19-4DCA-97A5-CE0511EE8207}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" firstSheet="7" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="пр" sheetId="13" state="veryHidden" r:id="rId1"/>
@@ -21,7 +22,7 @@
     <sheet name="Денежные потоки" sheetId="18" r:id="rId12"/>
     <sheet name="KPI" sheetId="4" r:id="rId13"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179017"/>
   <fileRecoveryPr autoRecover="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -32,12 +33,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Автор</author>
   </authors>
   <commentList>
-    <comment ref="A24" authorId="0" shapeId="0">
+    <comment ref="A24" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -68,12 +69,12 @@
 </file>
 
 <file path=xl/comments10.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Автор</author>
   </authors>
   <commentList>
-    <comment ref="B4" authorId="0" shapeId="0">
+    <comment ref="B4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000001000000}">
       <text>
         <r>
           <rPr>
@@ -89,7 +90,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A24" authorId="0" shapeId="0">
+    <comment ref="A24" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000002000000}">
       <text>
         <r>
           <rPr>
@@ -120,12 +121,12 @@
 </file>
 
 <file path=xl/comments11.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Автор</author>
   </authors>
   <commentList>
-    <comment ref="A13" authorId="0" shapeId="0">
+    <comment ref="A13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0B00-000001000000}">
       <text>
         <r>
           <rPr>
@@ -156,12 +157,12 @@
 </file>
 
 <file path=xl/comments12.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Автор</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0" shapeId="0">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0C00-000001000000}">
       <text>
         <r>
           <rPr>
@@ -187,7 +188,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0C00-000002000000}">
       <text>
         <r>
           <rPr>
@@ -213,7 +214,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0C00-000003000000}">
       <text>
         <r>
           <rPr>
@@ -239,7 +240,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0C00-000004000000}">
       <text>
         <r>
           <rPr>
@@ -265,7 +266,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0">
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0C00-000005000000}">
       <text>
         <r>
           <rPr>
@@ -296,12 +297,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Автор</author>
   </authors>
   <commentList>
-    <comment ref="A12" authorId="0" shapeId="0">
+    <comment ref="A12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -332,12 +333,12 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Автор</author>
   </authors>
   <commentList>
-    <comment ref="B3" authorId="0" shapeId="0">
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
           <rPr>
@@ -353,7 +354,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B8" authorId="0" shapeId="0">
+    <comment ref="B8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
       <text>
         <r>
           <rPr>
@@ -374,12 +375,12 @@
 </file>
 
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Автор</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0" shapeId="0">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
       <text>
         <r>
           <rPr>
@@ -410,12 +411,12 @@
 </file>
 
 <file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Автор</author>
   </authors>
   <commentList>
-    <comment ref="A10" authorId="0" shapeId="0">
+    <comment ref="A10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000001000000}">
       <text>
         <r>
           <rPr>
@@ -446,12 +447,12 @@
 </file>
 
 <file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Автор</author>
   </authors>
   <commentList>
-    <comment ref="F1" authorId="0" shapeId="0">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000001000000}">
       <text>
         <r>
           <rPr>
@@ -482,12 +483,12 @@
 </file>
 
 <file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Автор</author>
   </authors>
   <commentList>
-    <comment ref="B3" authorId="0" shapeId="0">
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000001000000}">
       <text>
         <r>
           <rPr>
@@ -513,7 +514,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B5" authorId="0" shapeId="0">
+    <comment ref="B5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000002000000}">
       <text>
         <r>
           <rPr>
@@ -539,7 +540,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B8" authorId="0" shapeId="0">
+    <comment ref="B8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000003000000}">
       <text>
         <r>
           <rPr>
@@ -565,7 +566,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B9" authorId="0" shapeId="0">
+    <comment ref="B9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000004000000}">
       <text>
         <r>
           <rPr>
@@ -591,7 +592,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C9" authorId="0" shapeId="0">
+    <comment ref="C9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000005000000}">
       <text>
         <r>
           <rPr>
@@ -622,12 +623,12 @@
 </file>
 
 <file path=xl/comments8.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Автор</author>
   </authors>
   <commentList>
-    <comment ref="A4" authorId="0" shapeId="0">
+    <comment ref="A4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0800-000001000000}">
       <text>
         <r>
           <rPr>
@@ -653,7 +654,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B14" authorId="0" shapeId="0">
+    <comment ref="B14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0800-000002000000}">
       <text>
         <r>
           <rPr>
@@ -684,12 +685,12 @@
 </file>
 
 <file path=xl/comments9.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Автор</author>
   </authors>
   <commentList>
-    <comment ref="A3" authorId="0" shapeId="0">
+    <comment ref="A3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0900-000001000000}">
       <text>
         <r>
           <rPr>
@@ -715,7 +716,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A8" authorId="0" shapeId="0">
+    <comment ref="A8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0900-000002000000}">
       <text>
         <r>
           <rPr>
@@ -1324,7 +1325,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="7">
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* &quot;-&quot;??\ &quot;₽&quot;_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
@@ -1723,6 +1724,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1747,25 +1755,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Обычный 2" xfId="2"/>
+    <cellStyle name="Обычный 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Процентный" xfId="1" builtinId="5"/>
-    <cellStyle name="Процентный 2" xfId="3"/>
+    <cellStyle name="Процентный 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
   </cellStyles>
   <dxfs count="13">
     <dxf>
@@ -1941,7 +1942,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="Стиль таблицы 1" pivot="0" count="0"/>
+    <tableStyle name="Стиль таблицы 1" pivot="0" count="0" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}"/>
   </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1994,7 +1995,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2375,9 +2375,7 @@
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000003-1788-481C-917B-1407A06327C7}"/>
                 </c:ext>
@@ -2398,9 +2396,7 @@
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000002-1788-481C-917B-1407A06327C7}"/>
                 </c:ext>
@@ -2421,9 +2417,7 @@
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000001-1788-481C-917B-1407A06327C7}"/>
                 </c:ext>
@@ -2444,9 +2438,7 @@
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000004-1788-481C-917B-1407A06327C7}"/>
                 </c:ext>
@@ -2467,9 +2459,7 @@
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000005-1788-481C-917B-1407A06327C7}"/>
                 </c:ext>
@@ -2539,9 +2529,7 @@
               </c:spPr>
             </c:leaderLines>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -3358,6 +3346,18 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Button" lockText="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp2.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Button" lockText="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp3.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Button" lockText="1"/>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
@@ -3454,35 +3454,247 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>457200</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>83820</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>205740</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>342900</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1048" name="Button 24" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1048"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55000FEF-2779-422E-9AB0-639DE9C93574}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="36576" bIns="32004" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Calibri"/>
+                  <a:cs typeface="Calibri"/>
+                </a:rPr>
+                <a:t>Пересчитать PP opt</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData fPrintsWithSheet="0"/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>449580</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>60960</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>205740</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>320040</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1050" name="Button 26" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1050"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C9A9914-24FB-421D-B774-AD0CACB11BF9}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="36576" bIns="32004" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Calibri"/>
+                  <a:cs typeface="Calibri"/>
+                </a:rPr>
+                <a:t>Пересчитать PP prob</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData fPrintsWithSheet="0"/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>464820</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>45720</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>205740</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>304800</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1052" name="Button 28" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1052"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56FD945A-2B77-4B62-8BDE-18765E6BAD4A}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="36576" bIns="32004" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Calibri"/>
+                  <a:cs typeface="Calibri"/>
+                </a:rPr>
+                <a:t>Пересчитать PP stress</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData fPrintsWithSheet="0"/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица1" displayName="Таблица1" ref="A1:C10" totalsRowShown="0">
-  <autoFilter ref="A1:C10"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Таблица1" displayName="Таблица1" ref="A1:C10" totalsRowShown="0">
+  <autoFilter ref="A1:C10" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Предпосылки"/>
-    <tableColumn id="2" name="Фактический показатель" dataDxfId="12"/>
-    <tableColumn id="3" name="Целевой показатель" dataDxfId="11"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Предпосылки"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Фактический показатель" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Целевой показатель" dataDxfId="11"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Таблица2" displayName="Таблица2" ref="A12:B20" totalsRowShown="0">
-  <autoFilter ref="A12:B20"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Таблица2" displayName="Таблица2" ref="A12:B20" totalsRowShown="0">
+  <autoFilter ref="A12:B20" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="Условия кредита"/>
-    <tableColumn id="2" name="Показатель"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Условия кредита"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Показатель"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Таблица3" displayName="Таблица3" ref="F1:G3" totalsRowShown="0">
-  <autoFilter ref="F1:G3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Таблица3" displayName="Таблица3" ref="F1:G3" totalsRowShown="0">
+  <autoFilter ref="F1:G3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="Раунды кредита"/>
-    <tableColumn id="2" name="Размер" dataDxfId="10">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Раунды кредита"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Размер" dataDxfId="10">
       <calculatedColumnFormula>'Денежный поток'!C7</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3491,16 +3703,16 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Таблица4" displayName="Таблица4" ref="A1:G5" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7">
-  <autoFilter ref="A1:G5"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Таблица4" displayName="Таблица4" ref="A1:G5" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7">
+  <autoFilter ref="A1:G5" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="Сценарии" dataDxfId="6"/>
-    <tableColumn id="2" name="Вероятность сценария" dataDxfId="5"/>
-    <tableColumn id="3" name="NPV" dataDxfId="4"/>
-    <tableColumn id="4" name="PP, лет" dataDxfId="3"/>
-    <tableColumn id="8" name="DPP, лет" dataDxfId="2"/>
-    <tableColumn id="5" name="IRR" dataDxfId="1"/>
-    <tableColumn id="6" name="PI" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Сценарии" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Вероятность сценария" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="NPV" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="PP, лет" dataDxfId="3"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0300-000008000000}" name="DPP, лет" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="IRR" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="PI" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="Стиль таблицы 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3768,7 +3980,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Лист2"/>
   <dimension ref="A1:Q28"/>
   <sheetViews>
@@ -3776,15 +3988,15 @@
       <selection activeCell="Q21" sqref="Q21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.85546875" customWidth="1"/>
-    <col min="3" max="16" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.88671875" customWidth="1"/>
+    <col min="3" max="16" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="35" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="35" t="s">
         <v>98</v>
       </c>
@@ -3834,36 +4046,36 @@
         <v>2032</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="36" t="s">
         <v>112</v>
       </c>
       <c r="B2" t="s">
         <v>113</v>
       </c>
-      <c r="C2" s="86" t="s">
+      <c r="C2" s="89" t="s">
         <v>114</v>
       </c>
-      <c r="D2" s="86"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="86"/>
-      <c r="G2" s="86"/>
-      <c r="H2" s="86"/>
-      <c r="I2" s="86"/>
-      <c r="J2" s="86"/>
-      <c r="K2" s="86"/>
-      <c r="L2" s="86"/>
-      <c r="M2" s="86"/>
-      <c r="N2" s="86"/>
-      <c r="O2" s="86"/>
-      <c r="P2" s="86"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="D2" s="89"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="89"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="89"/>
+      <c r="I2" s="89"/>
+      <c r="J2" s="89"/>
+      <c r="K2" s="89"/>
+      <c r="L2" s="89"/>
+      <c r="M2" s="89"/>
+      <c r="N2" s="89"/>
+      <c r="O2" s="89"/>
+      <c r="P2" s="89"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="4" spans="1:16" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="21" t="s">
         <v>117</v>
       </c>
@@ -3913,7 +4125,7 @@
         <v>229444297.14249113</v>
       </c>
     </row>
-    <row r="5" spans="1:16" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="28" t="s">
         <v>118</v>
       </c>
@@ -3963,7 +4175,7 @@
         <v>212109883.68302858</v>
       </c>
     </row>
-    <row r="6" spans="1:16" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="31" t="s">
         <v>119</v>
       </c>
@@ -4013,7 +4225,7 @@
         <v>152955786.44688553</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>75</v>
       </c>
@@ -4054,7 +4266,7 @@
       </c>
       <c r="M7" s="26"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>100</v>
       </c>
@@ -4105,12 +4317,12 @@
         <v>40500000</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="10" spans="1:16" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="21" t="s">
         <v>117</v>
       </c>
@@ -4175,7 +4387,7 @@
         <v>188944297.14249113</v>
       </c>
     </row>
-    <row r="11" spans="1:16" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="28" t="s">
         <v>118</v>
       </c>
@@ -4240,7 +4452,7 @@
         <v>171609883.68302858</v>
       </c>
     </row>
-    <row r="12" spans="1:16" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="31" t="s">
         <v>119</v>
       </c>
@@ -4305,7 +4517,7 @@
         <v>112455786.44688553</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>77</v>
       </c>
@@ -4353,12 +4565,12 @@
         <v>5000000</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="15" spans="1:16" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="21" t="s">
         <v>117</v>
       </c>
@@ -4408,7 +4620,7 @@
         <v>183944297.14249113</v>
       </c>
     </row>
-    <row r="16" spans="1:16" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="28" t="s">
         <v>118</v>
       </c>
@@ -4458,7 +4670,7 @@
         <v>166609883.68302858</v>
       </c>
     </row>
-    <row r="17" spans="1:17" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="31" t="s">
         <v>119</v>
       </c>
@@ -4508,7 +4720,7 @@
         <v>107455786.44688553</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>111</v>
       </c>
@@ -4544,12 +4756,12 @@
       </c>
       <c r="L18" s="26"/>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="20" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="21" t="s">
         <v>117</v>
       </c>
@@ -4618,7 +4830,7 @@
         <v>16733709.425776839</v>
       </c>
     </row>
-    <row r="21" spans="1:17" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="28" t="s">
         <v>118</v>
       </c>
@@ -4687,7 +4899,7 @@
         <v>-89440445.47578606</v>
       </c>
     </row>
-    <row r="22" spans="1:17" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="31" t="s">
         <v>119</v>
       </c>
@@ -4756,12 +4968,12 @@
         <v>-475439148.96219563</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B25" s="26">
         <v>0</v>
       </c>
@@ -4772,7 +4984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="22"/>
       <c r="B26" s="26">
         <v>0</v>
@@ -4784,7 +4996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B27" s="26">
         <v>0</v>
       </c>
@@ -4795,7 +5007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>115</v>
       </c>
@@ -4810,7 +5022,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <sheetPr codeName="Лист7"/>
   <dimension ref="A1:Y16"/>
   <sheetViews>
@@ -4818,14 +5030,14 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.42578125" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="22" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.44140625" customWidth="1"/>
+    <col min="2" max="2" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="22" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" s="27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="29"/>
       <c r="B1" s="41" t="s">
         <v>127</v>
@@ -4891,12 +5103,12 @@
         <v>2037</v>
       </c>
     </row>
-    <row r="2" spans="1:25" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="21" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="3" spans="1:25" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>91</v>
       </c>
@@ -4961,7 +5173,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="4" spans="1:25" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" ht="28.8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>42</v>
       </c>
@@ -5049,7 +5261,7 @@
         <v>6.7583655984411442</v>
       </c>
     </row>
-    <row r="5" spans="1:25" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>86</v>
       </c>
@@ -5138,7 +5350,7 @@
         <v>43800000</v>
       </c>
     </row>
-    <row r="6" spans="1:25" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>90</v>
       </c>
@@ -5223,12 +5435,12 @@
         <v>296016413.21172214</v>
       </c>
     </row>
-    <row r="7" spans="1:25" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="28" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="8" spans="1:25" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>91</v>
       </c>
@@ -5293,7 +5505,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="9" spans="1:25" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" ht="28.8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>42</v>
       </c>
@@ -5381,7 +5593,7 @@
         <v>6.6332442628610568</v>
       </c>
     </row>
-    <row r="10" spans="1:25" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>86</v>
       </c>
@@ -5473,7 +5685,7 @@
       <c r="X10" s="25"/>
       <c r="Y10" s="25"/>
     </row>
-    <row r="11" spans="1:25" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>90</v>
       </c>
@@ -5558,12 +5770,12 @@
         <v>238796793.46299803</v>
       </c>
     </row>
-    <row r="12" spans="1:25" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="31" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="13" spans="1:25" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>91</v>
       </c>
@@ -5628,7 +5840,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="14" spans="1:25" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" ht="28.8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>42</v>
       </c>
@@ -5716,7 +5928,7 @@
         <v>4.5152780866735371</v>
       </c>
     </row>
-    <row r="15" spans="1:25" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>86</v>
       </c>
@@ -5805,7 +6017,7 @@
         <v>30659999.999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:25" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>90</v>
       </c>
@@ -5897,7 +6109,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <sheetPr codeName="Лист9"/>
   <dimension ref="A1:AD35"/>
   <sheetViews>
@@ -5906,17 +6118,17 @@
       <selection pane="bottomLeft" activeCell="V22" sqref="V22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.5703125" customWidth="1"/>
-    <col min="2" max="2" width="22.85546875" customWidth="1"/>
-    <col min="3" max="16" width="15.140625" customWidth="1"/>
-    <col min="17" max="17" width="12.42578125" customWidth="1"/>
-    <col min="18" max="21" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.5546875" customWidth="1"/>
+    <col min="2" max="2" width="22.88671875" customWidth="1"/>
+    <col min="3" max="16" width="15.109375" customWidth="1"/>
+    <col min="17" max="17" width="12.44140625" customWidth="1"/>
+    <col min="18" max="21" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" s="35" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="35" t="s">
         <v>98</v>
       </c>
@@ -5981,36 +6193,36 @@
         <v>2037</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A2" s="36" t="s">
         <v>112</v>
       </c>
       <c r="B2" t="s">
         <v>113</v>
       </c>
-      <c r="C2" s="86" t="s">
+      <c r="C2" s="89" t="s">
         <v>114</v>
       </c>
-      <c r="D2" s="86"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="86"/>
-      <c r="G2" s="86"/>
-      <c r="H2" s="86"/>
-      <c r="I2" s="86"/>
-      <c r="J2" s="86"/>
-      <c r="K2" s="86"/>
-      <c r="L2" s="86"/>
-      <c r="M2" s="86"/>
-      <c r="N2" s="86"/>
-      <c r="O2" s="86"/>
-      <c r="P2" s="86"/>
-    </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="D2" s="89"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="89"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="89"/>
+      <c r="I2" s="89"/>
+      <c r="J2" s="89"/>
+      <c r="K2" s="89"/>
+      <c r="L2" s="89"/>
+      <c r="M2" s="89"/>
+      <c r="N2" s="89"/>
+      <c r="O2" s="89"/>
+      <c r="P2" s="89"/>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="4" spans="1:30" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:30" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="21" t="s">
         <v>117</v>
       </c>
@@ -6110,7 +6322,7 @@
       <c r="AC4" s="37"/>
       <c r="AD4" s="37"/>
     </row>
-    <row r="5" spans="1:30" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:30" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="28" t="s">
         <v>118</v>
       </c>
@@ -6204,7 +6416,7 @@
       <c r="AC5" s="39"/>
       <c r="AD5" s="39"/>
     </row>
-    <row r="6" spans="1:30" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:30" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="31" t="s">
         <v>119</v>
       </c>
@@ -6298,7 +6510,7 @@
       <c r="AC6" s="40"/>
       <c r="AD6" s="40"/>
     </row>
-    <row r="7" spans="1:30" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:30" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="29" t="s">
         <v>137</v>
       </c>
@@ -6365,7 +6577,7 @@
       <c r="AC7" s="47"/>
       <c r="AD7" s="47"/>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>75</v>
       </c>
@@ -6431,7 +6643,7 @@
         <v>5000000</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>100</v>
       </c>
@@ -6525,12 +6737,12 @@
       <c r="AC9" s="26"/>
       <c r="AD9" s="26"/>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="11" spans="1:30" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:30" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="21" t="s">
         <v>117</v>
       </c>
@@ -6624,7 +6836,7 @@
       <c r="AC11" s="37"/>
       <c r="AD11" s="37"/>
     </row>
-    <row r="12" spans="1:30" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:30" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="28" t="s">
         <v>118</v>
       </c>
@@ -6718,7 +6930,7 @@
       <c r="AC12" s="39"/>
       <c r="AD12" s="39"/>
     </row>
-    <row r="13" spans="1:30" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:30" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="31" t="s">
         <v>119</v>
       </c>
@@ -6812,7 +7024,7 @@
       <c r="AC13" s="40"/>
       <c r="AD13" s="40"/>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>77</v>
       </c>
@@ -6884,12 +7096,12 @@
       <c r="AC14" s="26"/>
       <c r="AD14" s="26"/>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="16" spans="1:30" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:30" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="21" t="s">
         <v>117</v>
       </c>
@@ -6982,7 +7194,7 @@
       <c r="AC16" s="37"/>
       <c r="AD16" s="37"/>
     </row>
-    <row r="17" spans="1:30" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:30" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="28" t="s">
         <v>118</v>
       </c>
@@ -7075,7 +7287,7 @@
       <c r="AC17" s="39"/>
       <c r="AD17" s="39"/>
     </row>
-    <row r="18" spans="1:30" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:30" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="31" t="s">
         <v>119</v>
       </c>
@@ -7169,7 +7381,7 @@
       <c r="AC18" s="40"/>
       <c r="AD18" s="40"/>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>161</v>
       </c>
@@ -7254,12 +7466,12 @@
         <v>40522103.834388733</v>
       </c>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="21" spans="1:30" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:30" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="21" t="s">
         <v>117</v>
       </c>
@@ -7353,7 +7565,7 @@
       <c r="AC21" s="37"/>
       <c r="AD21" s="37"/>
     </row>
-    <row r="22" spans="1:30" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:30" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="28" t="s">
         <v>118</v>
       </c>
@@ -7447,7 +7659,7 @@
       <c r="AC22" s="39"/>
       <c r="AD22" s="39"/>
     </row>
-    <row r="23" spans="1:30" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:30" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="31" t="s">
         <v>119</v>
       </c>
@@ -7541,12 +7753,12 @@
       <c r="AC23" s="40"/>
       <c r="AD23" s="40"/>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="25" spans="1:30" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:30" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="37"/>
       <c r="B25" s="37">
         <f t="shared" ref="B25:H25" si="27">IF(B21&lt;0, 0, B21*0.2)</f>
@@ -7638,7 +7850,7 @@
       <c r="AC25" s="37"/>
       <c r="AD25" s="37"/>
     </row>
-    <row r="26" spans="1:30" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:30" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="38"/>
       <c r="B26" s="38">
         <f t="shared" ref="B26:F27" si="31">IF(B22&lt;0, 0, B22*0.2)</f>
@@ -7730,7 +7942,7 @@
       <c r="AC26" s="38"/>
       <c r="AD26" s="38"/>
     </row>
-    <row r="27" spans="1:30" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:30" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="40"/>
       <c r="B27" s="40">
         <f t="shared" si="31"/>
@@ -7822,12 +8034,12 @@
       <c r="AC27" s="40"/>
       <c r="AD27" s="40"/>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="29" spans="1:30" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:30" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="21" t="s">
         <v>117</v>
       </c>
@@ -7921,7 +8133,7 @@
       <c r="AC29" s="37"/>
       <c r="AD29" s="37"/>
     </row>
-    <row r="30" spans="1:30" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:30" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="28" t="s">
         <v>118</v>
       </c>
@@ -8015,7 +8227,7 @@
       <c r="AC30" s="39"/>
       <c r="AD30" s="39"/>
     </row>
-    <row r="31" spans="1:30" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:30" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="31" t="s">
         <v>119</v>
       </c>
@@ -8109,7 +8321,7 @@
       <c r="AC31" s="40"/>
       <c r="AD31" s="40"/>
     </row>
-    <row r="35" spans="24:30" x14ac:dyDescent="0.25">
+    <row r="35" spans="24:30" x14ac:dyDescent="0.3">
       <c r="X35" s="26"/>
       <c r="Y35" s="26"/>
       <c r="Z35" s="26"/>
@@ -8128,26 +8340,26 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <sheetPr codeName="Лист12"/>
   <dimension ref="A1:AE30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E35" sqref="E35"/>
+      <pane ySplit="2" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C29" sqref="C29:E29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.5703125" customWidth="1"/>
-    <col min="2" max="2" width="22.85546875" customWidth="1"/>
-    <col min="3" max="16" width="15.140625" customWidth="1"/>
+    <col min="1" max="1" width="23.5546875" customWidth="1"/>
+    <col min="2" max="2" width="22.88671875" customWidth="1"/>
+    <col min="3" max="16" width="15.109375" customWidth="1"/>
     <col min="17" max="22" width="14" bestFit="1" customWidth="1"/>
-    <col min="23" max="31" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="23" max="31" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" s="45" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" s="45" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="45" t="s">
         <v>98</v>
       </c>
@@ -8242,41 +8454,41 @@
         <v>2047</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A2" s="36" t="s">
         <v>112</v>
       </c>
-      <c r="B2" s="87" t="s">
+      <c r="B2" s="90" t="s">
         <v>113</v>
       </c>
-      <c r="C2" s="87"/>
-      <c r="D2" s="88" t="s">
+      <c r="C2" s="90"/>
+      <c r="D2" s="91" t="s">
         <v>114</v>
       </c>
-      <c r="E2" s="88"/>
-      <c r="F2" s="88"/>
-      <c r="G2" s="88"/>
-      <c r="H2" s="88"/>
-      <c r="I2" s="88"/>
-      <c r="J2" s="88"/>
-      <c r="K2" s="88"/>
-      <c r="L2" s="88"/>
-      <c r="M2" s="88"/>
-      <c r="N2" s="88"/>
-      <c r="O2" s="88"/>
-      <c r="P2" s="88"/>
-      <c r="Q2" s="88"/>
-      <c r="R2" s="88"/>
-      <c r="S2" s="88"/>
-      <c r="T2" s="88"/>
-      <c r="U2" s="88"/>
-    </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="E2" s="91"/>
+      <c r="F2" s="91"/>
+      <c r="G2" s="91"/>
+      <c r="H2" s="91"/>
+      <c r="I2" s="91"/>
+      <c r="J2" s="91"/>
+      <c r="K2" s="91"/>
+      <c r="L2" s="91"/>
+      <c r="M2" s="91"/>
+      <c r="N2" s="91"/>
+      <c r="O2" s="91"/>
+      <c r="P2" s="91"/>
+      <c r="Q2" s="91"/>
+      <c r="R2" s="91"/>
+      <c r="S2" s="91"/>
+      <c r="T2" s="91"/>
+      <c r="U2" s="91"/>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A4" s="21" t="s">
         <v>117</v>
       </c>
@@ -8361,7 +8573,7 @@
         <v>296016413.21172214</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A5" s="30" t="s">
         <v>118</v>
       </c>
@@ -8447,7 +8659,7 @@
       </c>
       <c r="V5" s="44"/>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A6" s="43" t="s">
         <v>119</v>
       </c>
@@ -8533,12 +8745,12 @@
       </c>
       <c r="V6" s="44"/>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="8" spans="1:31" s="44" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:31" s="44" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="44" t="s">
         <v>132</v>
       </c>
@@ -8605,7 +8817,7 @@
         <v>5000000</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A9" s="22" t="s">
         <v>133</v>
       </c>
@@ -8670,7 +8882,7 @@
         <v>5000000</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>163</v>
       </c>
@@ -8757,7 +8969,7 @@
       <c r="V10" s="26"/>
       <c r="W10" s="26"/>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>100</v>
       </c>
@@ -8842,7 +9054,7 @@
         <v>21828000</v>
       </c>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>171</v>
       </c>
@@ -8873,12 +9085,12 @@
       <c r="T12" s="26"/>
       <c r="U12" s="26"/>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="14" spans="1:31" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:31" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="37"/>
       <c r="B14" s="37">
         <f>Прибыль!B25</f>
@@ -8970,7 +9182,7 @@
       <c r="AC14" s="37"/>
       <c r="AD14" s="37"/>
     </row>
-    <row r="15" spans="1:31" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:31" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="38"/>
       <c r="B15" s="38">
         <f>Прибыль!B26</f>
@@ -9062,7 +9274,7 @@
       <c r="AC15" s="38"/>
       <c r="AD15" s="38"/>
     </row>
-    <row r="16" spans="1:31" s="43" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:31" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="57"/>
       <c r="B16" s="57">
         <f>Прибыль!B27</f>
@@ -9154,7 +9366,7 @@
       <c r="AC16" s="57"/>
       <c r="AD16" s="57"/>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>157</v>
       </c>
@@ -9162,8 +9374,14 @@
       <c r="C17" s="26"/>
       <c r="D17" s="26"/>
       <c r="E17" s="26"/>
-      <c r="F17" s="26"/>
-      <c r="G17" s="26"/>
+      <c r="F17" s="26">
+        <f>SUM(C18:G18)+B18</f>
+        <v>-3877738.9130547643</v>
+      </c>
+      <c r="G17" s="26">
+        <f>SUM(C19:I19)+B19</f>
+        <v>26626061.92060715</v>
+      </c>
       <c r="H17" s="26"/>
       <c r="I17" s="26"/>
       <c r="J17" s="26"/>
@@ -9179,7 +9397,7 @@
       <c r="T17" s="26"/>
       <c r="U17" s="26"/>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A18" s="21" t="s">
         <v>117</v>
       </c>
@@ -9264,7 +9482,7 @@
         <v>178933047.50186673</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A19" s="30" t="s">
         <v>118</v>
       </c>
@@ -9349,7 +9567,7 @@
         <v>166446689.6286093</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A20" s="43" t="s">
         <v>119</v>
       </c>
@@ -9434,12 +9652,12 @@
         <v>66088322.303021908</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>170</v>
       </c>
@@ -9504,7 +9722,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>172</v>
       </c>
@@ -9592,7 +9810,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A24" s="21" t="s">
         <v>117</v>
       </c>
@@ -9681,7 +9899,7 @@
         <v>137944858.69538283</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A25" s="30" t="s">
         <v>118</v>
       </c>
@@ -9770,7 +9988,7 @@
         <v>56554932.103489369</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A26" s="43" t="s">
         <v>119</v>
       </c>
@@ -9859,7 +10077,7 @@
         <v>-133425981.2966401</v>
       </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B30" s="44">
         <f>SUM(B20:N20)</f>
         <v>3276750.9921445847</v>
@@ -9876,26 +10094,26 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <sheetPr codeName="Лист10"/>
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" customWidth="1"/>
+    <col min="1" max="1" width="16.6640625" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" customWidth="1"/>
-    <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.88671875" customWidth="1"/>
+    <col min="6" max="6" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="68" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="68" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="66" t="s">
         <v>175</v>
       </c>
@@ -9918,7 +10136,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="58" t="s">
         <v>14</v>
       </c>
@@ -9930,7 +10148,7 @@
         <v>-133425981.2966401</v>
       </c>
       <c r="D2" s="61">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E2" s="85" t="s">
         <v>179</v>
@@ -9944,7 +10162,7 @@
         <v>0.53167433732313052</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="59" t="s">
         <v>15</v>
       </c>
@@ -9956,7 +10174,7 @@
         <v>56554932.103489369</v>
       </c>
       <c r="D3" s="61">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E3" s="61">
         <v>15</v>
@@ -9970,7 +10188,7 @@
         <v>1.198508010191258</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="60" t="s">
         <v>16</v>
       </c>
@@ -9982,7 +10200,7 @@
         <v>137944858.69538283</v>
       </c>
       <c r="D4" s="61">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E4" s="61">
         <v>12</v>
@@ -9996,7 +10214,7 @@
         <v>1.484186938207732</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
         <v>174</v>
       </c>
@@ -10010,7 +10228,7 @@
       </c>
       <c r="D5" s="84">
         <f>$B$2*D2+$B$3*D3+$B$4*D4</f>
-        <v>8.4</v>
+        <v>7.3999999999999995</v>
       </c>
       <c r="E5" s="82"/>
       <c r="F5" s="82"/>
@@ -10022,15 +10240,88 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x14">
+      <controls>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1048" r:id="rId4" name="Button 24">
+              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="[0]!PPopt">
+                <anchor moveWithCells="1" sizeWithCells="1">
+                  <from>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>457200</xdr:colOff>
+                    <xdr:row>3</xdr:row>
+                    <xdr:rowOff>83820</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>205740</xdr:colOff>
+                    <xdr:row>3</xdr:row>
+                    <xdr:rowOff>342900</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1050" r:id="rId5" name="Button 26">
+              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="[0]!PPprob">
+                <anchor moveWithCells="1" sizeWithCells="1">
+                  <from>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>449580</xdr:colOff>
+                    <xdr:row>2</xdr:row>
+                    <xdr:rowOff>60960</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>205740</xdr:colOff>
+                    <xdr:row>2</xdr:row>
+                    <xdr:rowOff>320040</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1052" r:id="rId6" name="Button 28">
+              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="[0]!PPstress">
+                <anchor moveWithCells="1" sizeWithCells="1">
+                  <from>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>464820</xdr:colOff>
+                    <xdr:row>1</xdr:row>
+                    <xdr:rowOff>45720</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>205740</xdr:colOff>
+                    <xdr:row>1</xdr:row>
+                    <xdr:rowOff>304800</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+      </controls>
+    </mc:Choice>
+  </mc:AlternateContent>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId7"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Лист11"/>
   <dimension ref="A1:AE23"/>
   <sheetViews>
@@ -10039,18 +10330,18 @@
       <selection pane="bottomLeft" activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.5703125" customWidth="1"/>
-    <col min="2" max="2" width="22.85546875" customWidth="1"/>
-    <col min="3" max="16" width="15.140625" customWidth="1"/>
+    <col min="1" max="1" width="23.5546875" customWidth="1"/>
+    <col min="2" max="2" width="22.88671875" customWidth="1"/>
+    <col min="3" max="16" width="15.109375" customWidth="1"/>
     <col min="17" max="21" width="14" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="23" max="31" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="31" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" s="45" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" s="45" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="45" t="s">
         <v>98</v>
       </c>
@@ -10145,41 +10436,41 @@
         <v>2047</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A2" s="36" t="s">
         <v>112</v>
       </c>
-      <c r="B2" s="87" t="s">
+      <c r="B2" s="90" t="s">
         <v>113</v>
       </c>
-      <c r="C2" s="87"/>
-      <c r="D2" s="88" t="s">
+      <c r="C2" s="90"/>
+      <c r="D2" s="91" t="s">
         <v>114</v>
       </c>
-      <c r="E2" s="88"/>
-      <c r="F2" s="88"/>
-      <c r="G2" s="88"/>
-      <c r="H2" s="88"/>
-      <c r="I2" s="88"/>
-      <c r="J2" s="88"/>
-      <c r="K2" s="88"/>
-      <c r="L2" s="88"/>
-      <c r="M2" s="88"/>
-      <c r="N2" s="88"/>
-      <c r="O2" s="88"/>
-      <c r="P2" s="88"/>
-      <c r="Q2" s="88"/>
-      <c r="R2" s="88"/>
-      <c r="S2" s="88"/>
-      <c r="T2" s="88"/>
-      <c r="U2" s="88"/>
-    </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="E2" s="91"/>
+      <c r="F2" s="91"/>
+      <c r="G2" s="91"/>
+      <c r="H2" s="91"/>
+      <c r="I2" s="91"/>
+      <c r="J2" s="91"/>
+      <c r="K2" s="91"/>
+      <c r="L2" s="91"/>
+      <c r="M2" s="91"/>
+      <c r="N2" s="91"/>
+      <c r="O2" s="91"/>
+      <c r="P2" s="91"/>
+      <c r="Q2" s="91"/>
+      <c r="R2" s="91"/>
+      <c r="S2" s="91"/>
+      <c r="T2" s="91"/>
+      <c r="U2" s="91"/>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A4" s="21" t="s">
         <v>117</v>
       </c>
@@ -10264,7 +10555,7 @@
         <v>296016413.21172214</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A5" s="30" t="s">
         <v>118</v>
       </c>
@@ -10350,7 +10641,7 @@
       </c>
       <c r="V5" s="44"/>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A6" s="43" t="s">
         <v>119</v>
       </c>
@@ -10436,12 +10727,12 @@
       </c>
       <c r="V6" s="44"/>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="8" spans="1:31" s="44" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:31" s="44" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="44" t="s">
         <v>132</v>
       </c>
@@ -10508,7 +10799,7 @@
         <v>5000000</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A9" s="22" t="s">
         <v>133</v>
       </c>
@@ -10573,7 +10864,7 @@
         <v>5000000</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>156</v>
       </c>
@@ -10658,7 +10949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>100</v>
       </c>
@@ -10743,12 +11034,12 @@
         <v>21828000</v>
       </c>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="13" spans="1:31" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:31" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="37"/>
       <c r="B13" s="37">
         <f>Прибыль!B25</f>
@@ -10840,7 +11131,7 @@
       <c r="AC13" s="37"/>
       <c r="AD13" s="37"/>
     </row>
-    <row r="14" spans="1:31" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:31" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="38"/>
       <c r="B14" s="38">
         <f>Прибыль!B26</f>
@@ -10932,7 +11223,7 @@
       <c r="AC14" s="38"/>
       <c r="AD14" s="38"/>
     </row>
-    <row r="15" spans="1:31" s="43" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:31" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="57"/>
       <c r="B15" s="57">
         <f>Прибыль!B27</f>
@@ -11024,7 +11315,7 @@
       <c r="AC15" s="57"/>
       <c r="AD15" s="57"/>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>157</v>
       </c>
@@ -11049,7 +11340,7 @@
       <c r="T16" s="26"/>
       <c r="U16" s="26"/>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A17" s="21" t="s">
         <v>117</v>
       </c>
@@ -11134,7 +11425,7 @@
         <v>219455151.33625546</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A18" s="30" t="s">
         <v>118</v>
       </c>
@@ -11219,7 +11510,7 @@
         <v>206968793.46299803</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A19" s="43" t="s">
         <v>119</v>
       </c>
@@ -11304,20 +11595,20 @@
         <v>106610426.13741064</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B21" s="44">
         <f>C17+B17+D17+E17+F17+G17+H17+I17+J17+K17+L17+M17+N17+O17</f>
         <v>192352884.95963213</v>
       </c>
       <c r="D21" s="44"/>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B22" s="44">
         <f>SUM(B18:Q18)</f>
         <v>326048797.99196255</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B23" s="44">
         <f>SUM(B19:U19)</f>
         <v>92281706.667867169</v>
@@ -11334,22 +11625,22 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Лист4"/>
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="63.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="53.140625" customWidth="1"/>
+    <col min="1" max="1" width="63.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="53.109375" customWidth="1"/>
     <col min="3" max="3" width="52" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="68.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="68.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
         <v>31</v>
       </c>
@@ -11357,7 +11648,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="28.8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A2" s="14" t="s">
         <v>28</v>
       </c>
@@ -11365,7 +11656,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:2" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
         <v>35</v>
       </c>
@@ -11373,7 +11664,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:2" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A4" s="14" t="s">
         <v>29</v>
       </c>
@@ -11381,7 +11672,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:2" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A5" s="14" t="s">
         <v>30</v>
       </c>
@@ -11389,7 +11680,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="6" spans="1:2" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A6" s="14" t="s">
         <v>87</v>
       </c>
@@ -11398,7 +11689,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:2" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A7" s="14" t="s">
         <v>37</v>
       </c>
@@ -11406,7 +11697,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="19" t="s">
         <v>18</v>
       </c>
@@ -11414,7 +11705,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="19" t="s">
         <v>34</v>
       </c>
@@ -11423,7 +11714,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="19" t="s">
         <v>70</v>
       </c>
@@ -11431,7 +11722,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="19" t="s">
         <v>71</v>
       </c>
@@ -11439,7 +11730,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="19" t="s">
         <v>72</v>
       </c>
@@ -11448,7 +11739,7 @@
         <v>25.2</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="19" t="s">
         <v>56</v>
       </c>
@@ -11457,7 +11748,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="19" t="s">
         <v>17</v>
       </c>
@@ -11466,7 +11757,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="19" t="s">
         <v>88</v>
       </c>
@@ -11475,7 +11766,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="19" t="s">
         <v>89</v>
       </c>
@@ -11484,7 +11775,7 @@
         <v>43800000</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="19" t="s">
         <v>92</v>
       </c>
@@ -11500,7 +11791,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Лист13"/>
   <dimension ref="A1:B4"/>
   <sheetViews>
@@ -11508,17 +11799,17 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="33.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B1" s="65" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>138</v>
       </c>
@@ -11526,7 +11817,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -11534,7 +11825,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -11550,7 +11841,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr codeName="Лист1"/>
   <dimension ref="A1:B18"/>
   <sheetViews>
@@ -11558,75 +11849,75 @@
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="55.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="9.7109375" style="4" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="4"/>
+    <col min="1" max="1" width="55.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="9.6640625" style="4" customWidth="1"/>
+    <col min="5" max="16384" width="9.109375" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="92" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="95" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="92"/>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="89" t="s">
+      <c r="B1" s="95"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="92" t="s">
         <v>74</v>
       </c>
-      <c r="B2" s="89"/>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="89" t="s">
+      <c r="B2" s="92"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="92" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="89"/>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="89" t="s">
+      <c r="B3" s="92"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="92" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="89"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="89" t="s">
+      <c r="B4" s="92"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="92" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="89"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="93" t="s">
+      <c r="B5" s="92"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="96" t="s">
         <v>162</v>
       </c>
-      <c r="B6" s="89"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="89" t="s">
+      <c r="B6" s="92"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="92" t="s">
         <v>36</v>
       </c>
-      <c r="B7" s="89"/>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="89" t="s">
+      <c r="B7" s="92"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="92" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="89"/>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="90" t="s">
+      <c r="B8" s="92"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="93" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="90"/>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="91" t="s">
+      <c r="B9" s="93"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="94" t="s">
         <v>39</v>
       </c>
-      <c r="B10" s="91"/>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B10" s="94"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="16" t="s">
         <v>40</v>
       </c>
@@ -11634,7 +11925,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="56" t="s">
         <v>178</v>
       </c>
@@ -11642,7 +11933,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="56" t="s">
         <v>81</v>
       </c>
@@ -11650,7 +11941,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="56" t="s">
         <v>80</v>
       </c>
@@ -11658,13 +11949,13 @@
         <v>300</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="56" t="s">
         <v>82</v>
       </c>
       <c r="B15" s="16"/>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="56" t="s">
         <v>83</v>
       </c>
@@ -11673,7 +11964,7 @@
         <v>4380</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="56" t="s">
         <v>85</v>
       </c>
@@ -11682,7 +11973,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="56" t="s">
         <v>84</v>
       </c>
@@ -11710,7 +12001,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr codeName="Лист5"/>
   <dimension ref="A1:E12"/>
   <sheetViews>
@@ -11718,14 +12009,14 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
         <v>57</v>
       </c>
@@ -11733,7 +12024,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
         <v>60</v>
       </c>
@@ -11741,7 +12032,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
         <v>62</v>
       </c>
@@ -11749,7 +12040,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
         <v>58</v>
       </c>
@@ -11757,7 +12048,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="13" t="s">
         <v>59</v>
       </c>
@@ -11765,7 +12056,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="13" t="s">
         <v>65</v>
       </c>
@@ -11774,7 +12065,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="13" t="s">
         <v>67</v>
       </c>
@@ -11782,7 +12073,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="13" t="s">
         <v>66</v>
       </c>
@@ -11791,7 +12082,7 @@
       </c>
       <c r="E8" s="64"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="13" t="s">
         <v>68</v>
       </c>
@@ -11801,7 +12092,7 @@
       </c>
       <c r="E9" s="64"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="13" t="s">
         <v>69</v>
       </c>
@@ -11810,7 +12101,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="34" t="s">
         <v>101</v>
       </c>
@@ -11818,7 +12109,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="34" t="s">
         <v>160</v>
       </c>
@@ -11833,7 +12124,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr codeName="Лист3"/>
   <dimension ref="A1:F12"/>
   <sheetViews>
@@ -11841,18 +12132,18 @@
       <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" style="1"/>
+    <col min="2" max="2" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.5546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="95"/>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="86"/>
       <c r="B1" s="9"/>
       <c r="C1" s="9" t="s">
         <v>5</v>
@@ -11867,8 +12158,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="95"/>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="86"/>
       <c r="B2" s="9" t="s">
         <v>7</v>
       </c>
@@ -11886,8 +12177,8 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="96" t="s">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="97" t="s">
         <v>122</v>
       </c>
       <c r="B3" s="9" t="s">
@@ -11907,8 +12198,8 @@
         <v>460000</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="96"/>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="97"/>
       <c r="B4" s="9" t="s">
         <v>4</v>
       </c>
@@ -11926,8 +12217,8 @@
         <v>250000</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="96" t="s">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="97" t="s">
         <v>123</v>
       </c>
       <c r="B5" s="9" t="s">
@@ -11947,8 +12238,8 @@
         <v>240000</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="96"/>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="97"/>
       <c r="B6" s="9" t="s">
         <v>124</v>
       </c>
@@ -11966,8 +12257,8 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="96"/>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="97"/>
       <c r="B7" s="9" t="s">
         <v>126</v>
       </c>
@@ -11985,12 +12276,12 @@
         <v>80000</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="95"/>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="86"/>
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
-      <c r="E8" s="97">
+      <c r="E8" s="87">
         <f>SUM(E2:E7)</f>
         <v>44</v>
       </c>
@@ -11999,8 +12290,8 @@
         <v>1230000</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="95"/>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="86"/>
       <c r="B9" s="9" t="s">
         <v>43</v>
       </c>
@@ -12008,7 +12299,7 @@
       <c r="D9" s="77">
         <v>5000</v>
       </c>
-      <c r="E9" s="97">
+      <c r="E9" s="87">
         <f>E8</f>
         <v>44</v>
       </c>
@@ -12017,13 +12308,13 @@
         <v>220000</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="95"/>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="86"/>
       <c r="B10" s="9" t="s">
         <v>44</v>
       </c>
       <c r="C10" s="9"/>
-      <c r="D10" s="98">
+      <c r="D10" s="88">
         <v>0.3</v>
       </c>
       <c r="E10" s="9"/>
@@ -12032,8 +12323,8 @@
         <v>369000</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="95"/>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="86"/>
       <c r="B11" s="9" t="s">
         <v>96</v>
       </c>
@@ -12045,8 +12336,8 @@
         <v>1819000</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="95"/>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="86"/>
       <c r="B12" s="9" t="s">
         <v>97</v>
       </c>
@@ -12069,7 +12360,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr codeName="Лист6"/>
   <dimension ref="A1:E17"/>
   <sheetViews>
@@ -12077,14 +12368,14 @@
       <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="38.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="42" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="42" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="75" t="s">
         <v>138</v>
       </c>
@@ -12101,7 +12392,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="9">
         <v>1</v>
       </c>
@@ -12119,7 +12410,7 @@
         <v>1500000</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="9">
         <v>2</v>
       </c>
@@ -12137,7 +12428,7 @@
         <v>25200000</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="9">
         <v>3</v>
       </c>
@@ -12155,7 +12446,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="79">
         <v>4</v>
       </c>
@@ -12173,7 +12464,7 @@
         <v>50000000</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="79">
         <v>5</v>
       </c>
@@ -12191,7 +12482,7 @@
         <v>5000000</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="79">
         <v>6</v>
       </c>
@@ -12209,7 +12500,7 @@
         <v>30000000</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="9">
         <v>7</v>
       </c>
@@ -12227,7 +12518,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="79">
         <v>8</v>
       </c>
@@ -12246,7 +12537,7 @@
         <v>480000000</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="79">
         <v>9</v>
       </c>
@@ -12264,7 +12555,7 @@
         <v>30000000</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="79">
         <v>10</v>
       </c>
@@ -12282,7 +12573,7 @@
         <v>6000000</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="79">
         <v>11</v>
       </c>
@@ -12300,7 +12591,7 @@
         <v>5000000</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="79">
         <v>12</v>
       </c>
@@ -12318,7 +12609,7 @@
         <v>15000000</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="79">
         <v>13</v>
       </c>
@@ -12336,7 +12627,7 @@
         <v>30000000</v>
       </c>
     </row>
-    <row r="15" spans="1:5" s="65" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" s="65" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="13"/>
       <c r="B15" s="13" t="s">
         <v>177</v>
@@ -12348,7 +12639,7 @@
         <v>697700000</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>116</v>
       </c>
@@ -12365,7 +12656,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr codeName="Лист8"/>
   <dimension ref="A1:Q29"/>
   <sheetViews>
@@ -12373,23 +12664,23 @@
       <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.5703125" customWidth="1"/>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.5546875" customWidth="1"/>
     <col min="3" max="3" width="22" customWidth="1"/>
-    <col min="4" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.140625" customWidth="1"/>
-    <col min="10" max="10" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="17" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.109375" customWidth="1"/>
+    <col min="10" max="10" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="17" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>148</v>
       </c>
@@ -12406,7 +12697,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>105</v>
       </c>
@@ -12422,7 +12713,7 @@
         <v>127800000</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>106</v>
       </c>
@@ -12438,7 +12729,7 @@
         <v>285000000</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>107</v>
       </c>
@@ -12452,7 +12743,7 @@
       <c r="I4" s="51"/>
       <c r="J4" s="51"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>108</v>
       </c>
@@ -12469,7 +12760,7 @@
       <c r="I5" s="53"/>
       <c r="J5" s="51"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>109</v>
       </c>
@@ -12486,7 +12777,7 @@
       <c r="I6" s="55"/>
       <c r="J6" s="51"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>103</v>
       </c>
@@ -12497,15 +12788,15 @@
       <c r="C7" s="8">
         <v>0.18</v>
       </c>
-      <c r="F7" s="94" t="s">
+      <c r="F7" s="98" t="s">
         <v>176</v>
       </c>
-      <c r="G7" s="94"/>
+      <c r="G7" s="98"/>
       <c r="H7" s="55"/>
       <c r="I7" s="55"/>
       <c r="J7" s="51"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>104</v>
       </c>
@@ -12525,7 +12816,7 @@
       <c r="I8" s="55"/>
       <c r="J8" s="51"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>110</v>
       </c>
@@ -12545,7 +12836,7 @@
       <c r="I9" s="55"/>
       <c r="J9" s="51"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>102</v>
       </c>
@@ -12567,7 +12858,7 @@
       <c r="I10" s="55"/>
       <c r="J10" s="51"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="F11" s="69" t="s">
         <v>169</v>
       </c>
@@ -12578,7 +12869,7 @@
       <c r="I11" s="55"/>
       <c r="J11" s="51"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>140</v>
       </c>
@@ -12595,7 +12886,7 @@
       <c r="I12" s="55"/>
       <c r="J12" s="51"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>141</v>
       </c>
@@ -12612,7 +12903,7 @@
       <c r="I13" s="55"/>
       <c r="J13" s="51"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>143</v>
       </c>
@@ -12624,7 +12915,7 @@
       <c r="I14" s="55"/>
       <c r="J14" s="51"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>139</v>
       </c>
@@ -12637,7 +12928,7 @@
       <c r="I15" s="55"/>
       <c r="J15" s="51"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>145</v>
       </c>
@@ -12650,7 +12941,7 @@
       <c r="I16" s="55"/>
       <c r="J16" s="51"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>147</v>
       </c>
@@ -12663,7 +12954,7 @@
       <c r="I17" s="55"/>
       <c r="J17" s="51"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>134</v>
       </c>
@@ -12677,7 +12968,7 @@
       <c r="I18" s="55"/>
       <c r="J18" s="51"/>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>120</v>
       </c>
@@ -12691,7 +12982,7 @@
       <c r="I19" s="55"/>
       <c r="J19" s="51"/>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>155</v>
       </c>
@@ -12704,14 +12995,14 @@
       <c r="I20" s="55"/>
       <c r="J20" s="51"/>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="F21" s="54"/>
       <c r="G21" s="55"/>
       <c r="H21" s="55"/>
       <c r="I21" s="55"/>
       <c r="J21" s="51"/>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B22" s="46">
         <f>1/B8-1/(B8*(1+B8)^(B15-1))</f>
         <v>4.1114073235223279</v>
@@ -12722,20 +13013,20 @@
       <c r="I22" s="52"/>
       <c r="J22" s="51"/>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="F23" s="51"/>
       <c r="G23" s="52"/>
       <c r="H23" s="52"/>
       <c r="I23" s="52"/>
       <c r="J23" s="51"/>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B24" s="2"/>
       <c r="G24" s="26"/>
       <c r="H24" s="26"/>
       <c r="I24" s="26"/>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="50" t="s">
         <v>151</v>
       </c>
@@ -12788,7 +13079,7 @@
         <v>2033</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="48" t="s">
         <v>152</v>
       </c>
@@ -12857,7 +13148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="48" t="s">
         <v>153</v>
       </c>
@@ -12926,7 +13217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="48" t="s">
         <v>154</v>
       </c>
@@ -12995,7 +13286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="53" t="s">
         <v>161</v>
       </c>
